--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micbo262\Documents\FutureofCanadasIndigenousLanguages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C95134-F683-4148-A726-69605C0A319C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D71F5-3485-4240-A086-5640E01EF61C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,22 +250,22 @@
     <t>Tlicho</t>
   </si>
   <si>
+    <t>Cree (cont.)</t>
+  </si>
+  <si>
+    <t>Dakotan (cont.)</t>
+  </si>
+  <si>
+    <t>Dene (cont.)</t>
+  </si>
+  <si>
+    <t>Ojibway (cont.)</t>
+  </si>
+  <si>
+    <t>Slavey (cont.)</t>
+  </si>
+  <si>
     <t>Innu-Naskapi</t>
-  </si>
-  <si>
-    <t>Dakotan langs.</t>
-  </si>
-  <si>
-    <t>Cree langs.</t>
-  </si>
-  <si>
-    <t>Dene</t>
-  </si>
-  <si>
-    <t>Ojibwa langs.</t>
-  </si>
-  <si>
-    <t>Slavey (N &amp; S)</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1194,7 +1194,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
